--- a/Parcelamentos_PGFN.xlsx
+++ b/Parcelamentos_PGFN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaellacavalcante/Asteca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEFBA7A-E10C-D246-A82D-CC8BC77CCDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECF6DF2-503C-9B4A-A159-118FBC130289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,14 +148,14 @@
     <t>['005790694', '005790645', '010762944', '010762860']</t>
   </si>
   <si>
-    <t>Clientes com Parcelamentos ativos na PGFN</t>
+    <t>Clientes com parcelamentos ativos na PGFN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,13 +237,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,186 +547,186 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="54" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
     </row>
